--- a/calculos/final_ex.xlsx
+++ b/calculos/final_ex.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alumno\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alumno\Documents\GitHub\Trabajo_practico_java\calculos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>1a</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t xml:space="preserve">hacer pocicionamiento </t>
+  </si>
+  <si>
+    <t>.= 1</t>
   </si>
 </sst>
 </file>
@@ -424,15 +427,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -443,7 +446,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -455,7 +458,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -467,13 +470,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -482,7 +485,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -493,13 +496,16 @@
       <c r="F6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -511,7 +517,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -523,12 +529,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -537,7 +543,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
